--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -3508,7 +3508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6923,17 +6923,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1570552</t>
+          <t>1570551</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Simon Kure (22 år)</t>
+          <t>Johan Svensson (30 år)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Särö IBK</t>
+          <t>IBK Kungälv</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -6947,6 +6947,578 @@
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1570551</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Johan Ljungberg (29 år)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1570552</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Vincent Sohlström (32 år)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1570552</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Albin Flöjner (21 år)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1570552</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Simon Kure (22 år)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Särö IBK</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1570553</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Emil Lundberg (25 år)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>21</v>
+      </c>
+      <c r="E124" t="n">
+        <v>27</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1570553</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Liam Eriksson (17 år)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1570553</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Martinus Martinsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1570553</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Oskar Adler (31 år)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>27</v>
+      </c>
+      <c r="E127" t="n">
+        <v>36</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1570554</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Elliot Järn (19 år)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1570554</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Isak Dorell (22 år)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>14</v>
+      </c>
+      <c r="E129" t="n">
+        <v>20</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1570554</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Robin Pagoldh (25 år)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>18</v>
+      </c>
+      <c r="E130" t="n">
+        <v>21</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1570554</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Isaac Evans (18 år)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1570555</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Lukas Källström (25 år)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1570555</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Kasper Landström (19 år)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1570555</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Alvin Eckert (18 år)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1570555</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Johan Ringqvist (27 år)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1570556</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Helge Wårfors (20 år)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1570556</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Erik Christoffersson (22 år)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>34</v>
+      </c>
+      <c r="E137" t="n">
+        <v>39</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1570556</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Phoenix Wigilius (19 år)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1570556</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Kalle Lundgren (25 år)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20</v>
+      </c>
+      <c r="E139" t="n">
+        <v>23</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -3508,7 +3508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kasper Landström (19 år)</t>
+          <t>Kasper Landström (20 år)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kasper Landström (19 år)</t>
+          <t>Kasper Landström (20 år)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kasper Landström (19 år)</t>
+          <t>Kasper Landström (20 år)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kasper Landström (19 år)</t>
+          <t>Kasper Landström (20 år)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Kasper Landström (19 år)</t>
+          <t>Kasper Landström (20 år)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -6923,17 +6923,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1570552</t>
+          <t>1570551</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Simon Kure (22 år)</t>
+          <t>Lauritz Brunborg (17 år)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Särö IBK</t>
+          <t>Pixbo IBF</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -6947,6 +6947,2678 @@
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1570551</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Elmer Arne (18 år)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1570551</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Johan Svensson (30 år)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1570551</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Johan Ljungberg (29 år)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1570552</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Vincent Sohlström (32 år)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1570552</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Albin Flöjner (21 år)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1570552</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Simon Kure (22 år)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Särö IBK</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1570553</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Emil Lundberg (25 år)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>21</v>
+      </c>
+      <c r="E126" t="n">
+        <v>27</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1570553</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Liam Eriksson (17 år)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1570553</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Martinus Martinsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1570553</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Oskar Adler (31 år)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>27</v>
+      </c>
+      <c r="E129" t="n">
+        <v>36</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1570554</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Elliot Järn (19 år)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1570554</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Isak Dorell (22 år)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>14</v>
+      </c>
+      <c r="E131" t="n">
+        <v>20</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1570554</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Robin Pagoldh (25 år)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>18</v>
+      </c>
+      <c r="E132" t="n">
+        <v>21</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1570554</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Isaac Evans (18 år)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1570555</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Lukas Källström (25 år)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1570555</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Kasper Landström (20 år)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1570555</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Alvin Eckert (18 år)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1570555</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Johan Ringqvist (27 år)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1570556</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Helge Wårfors (20 år)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1570556</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Erik Christoffersson (22 år)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>34</v>
+      </c>
+      <c r="E139" t="n">
+        <v>39</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1570556</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Phoenix Wigilius (19 år)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1570556</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Kalle Lundgren (25 år)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20</v>
+      </c>
+      <c r="E141" t="n">
+        <v>23</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1570557</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Martinus Martinsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1570557</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Oskar Adler (31 år)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1570557</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Simon Kure (22 år)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Särö IBK</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1570558</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Johan Svensson (30 år)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1570558</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Johan Ljungberg (29 år)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1570558</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Lukas Källström (25 år)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1570558</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Oscar Larsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1570559</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Kalle Lundgren (25 år)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1570559</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Joel Andersson (18 år)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1570559</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Robin Pagoldh (25 år)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1570559</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Adrian Moghaddam (16 år)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1570560</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Helge Wårfors (20 år)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1570560</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Erik Christoffersson (22 år)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>16</v>
+      </c>
+      <c r="E154" t="n">
+        <v>22</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1570560</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Lauritz Brunborg (17 år)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1570560</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Elmer Arne (18 år)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>19</v>
+      </c>
+      <c r="E156" t="n">
+        <v>26</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1570561</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Alvin Eckert (18 år)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1570561</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Johan Ringqvist (27 år)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>13</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1570561</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Elliot Järn (19 år)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>21</v>
+      </c>
+      <c r="E159" t="n">
+        <v>29</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.7240000000000001</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1570561</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Isak Dorell (22 år)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1570562</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Emil Lundberg (25 år)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1570562</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Liam Eriksson (17 år)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1570562</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Vincent Sohlström (32 år)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1570562</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Albin Flöjner (21 år)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1570563</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Robin Pagoldh (25 år)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1570563</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Isaac Evans (18 år)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1570563</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Johan Svensson (30 år)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1570563</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Johan Ljungberg (29 år)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1570564</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Lukas Källström (25 år)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1570564</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Oscar Larsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1570564</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Martinus Martinsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1570564</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Oskar Adler (31 år)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1570565</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Simon Kure (22 år)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Särö IBK</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1570565</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Phoenix Wigilius (19 år)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1570565</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Joel Andersson (18 år)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1570566</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>David Vik (29 år)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1570566</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Elliot Järn (19 år)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1570566</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Helge Wårfors (20 år)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1570566</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Erik Christoffersson (22 år)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1570567</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Alvin Eckert (18 år)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>19</v>
+      </c>
+      <c r="E180" t="n">
+        <v>23</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1570567</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Johan Ringqvist (27 år)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1570567</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Emil Lundberg (25 år)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>13</v>
+      </c>
+      <c r="E182" t="n">
+        <v>20</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1570567</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Liam Eriksson (17 år)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1570568</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Lauritz Brunborg (17 år)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1570568</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Elmer Arne (18 år)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>10</v>
+      </c>
+      <c r="E185" t="n">
+        <v>18</v>
+      </c>
+      <c r="F185" t="n">
+        <v>8</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1570568</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Vincent Sohlström (32 år)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1570568</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Albin Flöjner (21 år)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>18</v>
+      </c>
+      <c r="E187" t="n">
+        <v>22</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1570569</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Hampus Eriksson (21 år)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Särö IBK</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1570569</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Simon Kure (22 år)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Särö IBK</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1570569</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Lukas Källström (25 år)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1570569</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Oscar Larsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1570570</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Martinus Martinsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1570570</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Oskar Adler (31 år)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1570570</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Robin Pagoldh (25 år)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1570570</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Adrian Moghaddam (16 år)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>FBC Partille</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1570571</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Johan Svensson (30 år)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1570571</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Johan Ljungberg (29 år)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>IBK Kungälv</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1570571</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Phoenix Wigilius (19 år)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1570571</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Kalle Lundgren (25 år)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1570572</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Helge Wårfors (20 år)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1570572</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Erik Christoffersson (22 år)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20</v>
+      </c>
+      <c r="E201" t="n">
+        <v>32</v>
+      </c>
+      <c r="F201" t="n">
+        <v>12</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1570572</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Emil Lundberg (25 år)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>25</v>
+      </c>
+      <c r="E202" t="n">
+        <v>32</v>
+      </c>
+      <c r="F202" t="n">
+        <v>7</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.7809999999999999</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1570572</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Liam Eriksson (17 år)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1570573</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Kai Fridolf (17 år)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1570573</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Elmer Arne (18 år)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>24</v>
+      </c>
+      <c r="E205" t="n">
+        <v>33</v>
+      </c>
+      <c r="F205" t="n">
+        <v>9</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1570573</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Elliot Järn (19 år)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>12</v>
+      </c>
+      <c r="E206" t="n">
+        <v>15</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1570573</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Isak Dorell (22 år)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1570574</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Vincent Sohlström (32 år)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20</v>
+      </c>
+      <c r="E208" t="n">
+        <v>28</v>
+      </c>
+      <c r="F208" t="n">
+        <v>8</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1570574</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Albin Flöjner (21 år)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1570574</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Alvin Eckert (18 år)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>17</v>
+      </c>
+      <c r="E210" t="n">
+        <v>21</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1570574</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Johan Ringqvist (27 år)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1570580</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Elliot Järn (19 år)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1570580</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Isak Dorell (22 år)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -3508,7 +3508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9567,17 +9567,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1570580</t>
+          <t>1570575</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Elliot Järn (19 år)</t>
+          <t>Johan Svensson (30 år)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Mullsjö AIS Utveckling</t>
+          <t>IBK Kungälv</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -9595,17 +9595,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1570580</t>
+          <t>1570575</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Isak Dorell (22 år)</t>
+          <t>Johan Ljungberg (29 år)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Mullsjö AIS Utveckling</t>
+          <t>IBK Kungälv</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -9619,6 +9619,524 @@
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1570575</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Martinus Martinsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1570575</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Oskar Adler (31 år)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>IBK Göteborg</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1570577</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Phoenix Wigilius (19 år)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1570577</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Kalle Lundgren (25 år)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Floda IBK</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>14</v>
+      </c>
+      <c r="E217" t="n">
+        <v>20</v>
+      </c>
+      <c r="F217" t="n">
+        <v>6</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1570577</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Lukas Källström (25 år)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1570577</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Oscar Larsson (21 år)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>IBF Backadalen</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>16</v>
+      </c>
+      <c r="E219" t="n">
+        <v>21</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1570578</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Alvin Eckert (18 år)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1570578</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Johan Ringqvist (27 år)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Fagerhult Habo IBK</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>13</v>
+      </c>
+      <c r="E221" t="n">
+        <v>14</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1570578</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Helge Wårfors (20 år)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>5</v>
+      </c>
+      <c r="E222" t="n">
+        <v>14</v>
+      </c>
+      <c r="F222" t="n">
+        <v>9</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1570578</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Erik Christoffersson (22 år)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Fristads GoIF</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>13</v>
+      </c>
+      <c r="E223" t="n">
+        <v>23</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1570579</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Emil Lundberg (25 år)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1570579</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Liam Eriksson (17 år)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>IBK Lidköping</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1570579</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Lauritz Brunborg (17 år)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1570579</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Elmer Arne (18 år)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Pixbo IBF</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1570580</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Vincent Sohlström (32 år)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1570580</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Albin Flöjner (21 år)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>IBK Alingsås</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>12</v>
+      </c>
+      <c r="E229" t="n">
+        <v>16</v>
+      </c>
+      <c r="F229" t="n">
+        <v>4</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1570580</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Elliot Järn (19 år)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>13</v>
+      </c>
+      <c r="E230" t="n">
+        <v>19</v>
+      </c>
+      <c r="F230" t="n">
+        <v>6</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1570580</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Isak Dorell (22 år)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS Utveckling</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -4658,7 +4658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13652,6 +13652,122 @@
       </c>
       <c r="H309" t="inlineStr"/>
     </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1571842</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Axel Adebrink (20 år)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>FBC Kalmarsund</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1571842</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Pontus Zarins (27 år)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>FBC Kalmarsund</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>18</v>
+      </c>
+      <c r="E311" t="n">
+        <v>24</v>
+      </c>
+      <c r="F311" t="n">
+        <v>6</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1571842</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Gustav Jansson (34 år)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>28</v>
+      </c>
+      <c r="E312" t="n">
+        <v>36</v>
+      </c>
+      <c r="F312" t="n">
+        <v>8</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>1571842</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Samuel Jönsson Dolke (20 år)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -4658,7 +4658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13655,105 +13655,105 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Axel Adebrink (20 år)</t>
+          <t>Emil Ödman (23 år)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
-      </c>
-      <c r="G310" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.647</v>
+      </c>
       <c r="H310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Pontus Zarins (27 år)</t>
+          <t>Alessio Mura (21 år)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E311" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>6</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Gustav Jansson (34 år)</t>
+          <t>Jon Hedlund (34 år)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E312" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F312" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G312" t="n">
-        <v>0.778</v>
+        <v>0.8</v>
       </c>
       <c r="H312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Samuel Jönsson Dolke (20 år)</t>
+          <t>Liam Juhlin (19 år)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -13767,6 +13767,588 @@
       </c>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1571841</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Tomas Jurco (21 år)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Linköping IBK</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>16</v>
+      </c>
+      <c r="E314" t="n">
+        <v>22</v>
+      </c>
+      <c r="F314" t="n">
+        <v>6</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>1571841</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Gustav Sundqvist (28 år)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Linköping IBK</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>1571841</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Victor Frejd (25 år)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>IBF Falun</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1571841</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Carl Bending-Sörling (31 år)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>IBF Falun</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>15</v>
+      </c>
+      <c r="E317" t="n">
+        <v>20</v>
+      </c>
+      <c r="F317" t="n">
+        <v>5</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>1571842</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Axel Adebrink (20 år)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>FBC Kalmarsund</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1571842</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Pontus Zarins (27 år)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>FBC Kalmarsund</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>18</v>
+      </c>
+      <c r="E319" t="n">
+        <v>24</v>
+      </c>
+      <c r="F319" t="n">
+        <v>6</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1571842</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Gustav Jansson (34 år)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>28</v>
+      </c>
+      <c r="E320" t="n">
+        <v>36</v>
+      </c>
+      <c r="F320" t="n">
+        <v>8</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1571842</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Samuel Jönsson Dolke (20 år)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0</v>
+      </c>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1571843</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Jesper Ahrén (23 år)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Nykvarns IBF</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1571843</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Lucas Orrmo (37 år)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Nykvarns IBF</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>21</v>
+      </c>
+      <c r="E323" t="n">
+        <v>26</v>
+      </c>
+      <c r="F323" t="n">
+        <v>5</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>1571843</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>David Andersson (23 år)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Hovslätts IK</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>2</v>
+      </c>
+      <c r="E324" t="n">
+        <v>3</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1571843</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Gustav Ringhagen (22 år)</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Hovslätts IK</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>19</v>
+      </c>
+      <c r="E325" t="n">
+        <v>23</v>
+      </c>
+      <c r="F325" t="n">
+        <v>4</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1571845</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Emil Lindblom (23 år)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Storvreta IBK</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1571845</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Måns Parsjö (31 år)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Storvreta IBK</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>6</v>
+      </c>
+      <c r="E327" t="n">
+        <v>9</v>
+      </c>
+      <c r="F327" t="n">
+        <v>3</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1571845</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Olle Jonsson (25 år)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Warberg IC</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>1571845</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Nicholay Halvorsen (25 år)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Warberg IC</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>8</v>
+      </c>
+      <c r="E329" t="n">
+        <v>13</v>
+      </c>
+      <c r="F329" t="n">
+        <v>5</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>1571846</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Rasmus Ekström (30 år)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Visby IBK</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>27</v>
+      </c>
+      <c r="E330" t="n">
+        <v>38</v>
+      </c>
+      <c r="F330" t="n">
+        <v>11</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>1571846</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Andreas Egegård (28 år)</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Visby IBK</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1571846</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Santtu Strandberg (34 år)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Växjö IBK</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>17</v>
+      </c>
+      <c r="E332" t="n">
+        <v>27</v>
+      </c>
+      <c r="F332" t="n">
+        <v>10</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>1571846</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Noel Johansson (19 år)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Växjö IBK</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0</v>
+      </c>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -17,7 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -472,7 +476,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571763</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="2" t="n">
+        <v>45920.75</v>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -495,7 +501,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571764</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="2" t="n">
+        <v>45920.75</v>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -518,7 +526,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571765</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="2" t="n">
+        <v>45920.58333333334</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -541,7 +551,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571766</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>45920.71319444444</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -564,7 +576,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571767</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="2" t="n">
+        <v>45920.625</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -587,7 +601,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571768</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="2" t="n">
+        <v>45920.66666666666</v>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -610,7 +626,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571769</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
+        <v>45920.66666666666</v>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -633,7 +651,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571770</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>45923.77083333334</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -656,7 +676,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571771</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>45923.79166666666</v>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -679,7 +701,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571772</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="2" t="n">
+        <v>45924.79166666666</v>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -702,7 +726,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571773</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
+        <v>45924.77083333334</v>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -725,7 +751,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571774</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>45924.77083333334</v>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -748,7 +776,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571775</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
+        <v>45923.77083333334</v>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -771,7 +801,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571776</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>45925.79166666666</v>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -794,7 +826,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571777</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="2" t="n">
+        <v>45927.625</v>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -817,7 +851,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571778</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>45928.6875</v>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -840,7 +876,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571779</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>45928.79166666666</v>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -863,7 +901,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571780</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>45927.66666666666</v>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -886,7 +926,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571781</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="2" t="n">
+        <v>45927.71319444444</v>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -909,7 +951,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571782</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="2" t="n">
+        <v>45928.66666666666</v>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -932,7 +976,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571783</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>45926.77083333334</v>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -955,7 +1001,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571784</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>45934.625</v>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -978,7 +1026,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571785</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
+        <v>45934.66666666666</v>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -1001,7 +1051,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571786</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
+        <v>45933.79166666666</v>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -1024,7 +1076,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571787</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>45933.82291666666</v>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -1047,7 +1101,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571788</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>45934.67708333334</v>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -1070,7 +1126,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571789</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>45935.58333333334</v>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -1093,7 +1151,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571790</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="2" t="n">
+        <v>45935.70833333334</v>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -1116,7 +1176,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571791</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="2" t="n">
+        <v>45942.70833333334</v>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -1139,7 +1201,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571792</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="2" t="n">
+        <v>45942.66666666666</v>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -1162,7 +1226,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571793</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
+        <v>45941.625</v>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -1185,7 +1251,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571794</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="2" t="n">
+        <v>45941.66666666666</v>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -1208,7 +1276,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571795</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="2" t="n">
+        <v>45941.66666666666</v>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -1231,7 +1301,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571796</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="2" t="n">
+        <v>45941.75</v>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -1254,7 +1326,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571797</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="2" t="n">
+        <v>45941.70833333334</v>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -1277,7 +1351,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571798</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="2" t="n">
+        <v>45945.77083333334</v>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -1300,7 +1376,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571799</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="2" t="n">
+        <v>45945.79166666666</v>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -1323,7 +1401,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571800</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="2" t="n">
+        <v>45944.77083333334</v>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -1346,7 +1426,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571801</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="2" t="n">
+        <v>45945.77083333334</v>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -1369,7 +1451,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571802</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="2" t="n">
+        <v>45945.79166666666</v>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -1392,7 +1476,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571803</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="2" t="n">
+        <v>45945.79166666666</v>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -1415,7 +1501,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571804</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="2" t="n">
+        <v>45945.79166666666</v>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -1438,7 +1526,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571805</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="2" t="n">
+        <v>45954.79166666666</v>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -1461,7 +1551,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571806</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="2" t="n">
+        <v>45954.77083333334</v>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -1484,7 +1576,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571807</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="2" t="n">
+        <v>45955.67708333334</v>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -1507,7 +1601,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571808</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="2" t="n">
+        <v>45956.6875</v>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -1530,7 +1626,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571809</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="2" t="n">
+        <v>45957.79166666666</v>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -1553,7 +1651,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571810</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="2" t="n">
+        <v>45955.66666666666</v>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -1576,7 +1676,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571811</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="2" t="n">
+        <v>45955.66666666666</v>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -1599,7 +1701,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571812</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="2" t="n">
+        <v>45962.625</v>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -1622,7 +1726,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571813</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="2" t="n">
+        <v>45961.77083333334</v>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -1645,7 +1751,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571814</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="2" t="n">
+        <v>45961.85416666666</v>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -1668,7 +1776,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571815</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="2" t="n">
+        <v>45962.71319444444</v>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -1691,7 +1801,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571816</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="2" t="n">
+        <v>45963.66666666666</v>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -1714,7 +1826,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571817</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="2" t="n">
+        <v>45963.66666666666</v>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -1737,7 +1851,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571818</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="2" t="n">
+        <v>45963.54166666666</v>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -1760,7 +1876,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571819</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="2" t="n">
+        <v>45976.66666666666</v>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -1783,7 +1901,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571820</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="2" t="n">
+        <v>45975.79166666666</v>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -1806,7 +1926,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571821</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="2" t="n">
+        <v>45976.70833333334</v>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -1829,7 +1951,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571822</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="2" t="n">
+        <v>45976.66666666666</v>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -1852,7 +1976,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571823</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="2" t="n">
+        <v>45976.70833333334</v>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -1875,7 +2001,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571824</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="2" t="n">
+        <v>45975.79166666666</v>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -1898,7 +2026,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571825</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="2" t="n">
+        <v>45976.66666666666</v>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -1921,7 +2051,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571826</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="2" t="n">
+        <v>45982.77083333334</v>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -1944,7 +2076,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571827</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="2" t="n">
+        <v>45983.75</v>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -1967,7 +2101,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571828</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="2" t="n">
+        <v>45983.625</v>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -1990,7 +2126,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571829</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="2" t="n">
+        <v>45982.77083333334</v>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -2013,7 +2151,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571830</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="2" t="n">
+        <v>45983.625</v>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -2036,7 +2176,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571831</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="2" t="n">
+        <v>45983.66666666666</v>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -2059,7 +2201,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571832</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="2" t="n">
+        <v>45983.625</v>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -2082,7 +2226,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571833</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="2" t="n">
+        <v>45989.77083333334</v>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -2105,7 +2251,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571834</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="2" t="n">
+        <v>45991.71319444444</v>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -2128,7 +2276,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571835</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="2" t="n">
+        <v>45991.66666666666</v>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -2151,7 +2301,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571836</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="2" t="n">
+        <v>45991.66666666666</v>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -2174,7 +2326,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571837</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="2" t="n">
+        <v>45990.75</v>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -2197,7 +2351,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571838</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="2" t="n">
+        <v>45990.70833333334</v>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -2220,7 +2376,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571839</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="2" t="n">
+        <v>45990.66666666666</v>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -2243,7 +2401,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571840</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="2" t="n">
+        <v>45996.82291666666</v>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -2266,7 +2426,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571841</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="2" t="n">
+        <v>45997.625</v>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -2289,7 +2451,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571842</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="2" t="n">
+        <v>45995.79166666666</v>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -2312,7 +2476,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571843</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="2" t="n">
+        <v>45997.66666666666</v>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -2335,7 +2501,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571844</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="2" t="n">
+        <v>45999.79166666666</v>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -2358,7 +2526,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571845</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="2" t="n">
+        <v>45998.66666666666</v>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -2381,7 +2551,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571846</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>45997.70833333334</v>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -2404,7 +2576,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571847</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="2" t="n">
+        <v>46011.625</v>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -2427,7 +2601,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571848</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="2" t="n">
+        <v>46011.66666666666</v>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -2450,7 +2626,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571849</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="2" t="n">
+        <v>46011.71319444444</v>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -2473,7 +2651,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571850</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="2" t="n">
+        <v>46011.66666666666</v>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -2496,7 +2676,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571851</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="2" t="n">
+        <v>46011.5625</v>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -2519,7 +2701,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571852</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="2" t="n">
+        <v>46011.66666666666</v>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -2542,7 +2726,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571853</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="2" t="n">
+        <v>46010.79166666666</v>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -2565,7 +2751,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571854</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="2" t="n">
+        <v>46018.70833333334</v>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -2588,7 +2776,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571855</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="2" t="n">
+        <v>46017.66666666666</v>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -2611,7 +2801,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571856</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="2" t="n">
+        <v>46017.66666666666</v>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -2634,7 +2826,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571857</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="2" t="n">
+        <v>46018.625</v>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -2657,7 +2851,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571858</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="2" t="n">
+        <v>46017.77083333334</v>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -2680,7 +2876,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571859</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="2" t="n">
+        <v>46018.70833333334</v>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -2703,7 +2901,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571860</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="2" t="n">
+        <v>46018.66666666666</v>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -2726,7 +2926,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571861</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" s="2" t="n">
+        <v>46025.625</v>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -2749,7 +2951,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571862</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" s="2" t="n">
+        <v>46025.66666666666</v>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -2772,7 +2976,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571863</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" s="2" t="n">
+        <v>46025.83333333334</v>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -2795,7 +3001,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571864</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" s="2" t="n">
+        <v>46027.79166666666</v>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -2818,7 +3026,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571865</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" s="2" t="n">
+        <v>46028.67152777778</v>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -2841,7 +3051,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571866</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" s="2" t="n">
+        <v>46025.52083333334</v>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -2864,7 +3076,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571867</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" s="2" t="n">
+        <v>46027.75</v>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -2887,7 +3101,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571868</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" s="2" t="n">
+        <v>46032.625</v>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -2910,7 +3126,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571869</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" s="2" t="n">
+        <v>46032.66666666666</v>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -2933,7 +3151,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571870</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" s="2" t="n">
+        <v>46032.75</v>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -2956,7 +3176,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571871</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" s="2" t="n">
+        <v>46032.6875</v>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -2979,7 +3201,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571872</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" s="2" t="n">
+        <v>46032.70833333334</v>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -3002,7 +3226,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571873</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" s="2" t="n">
+        <v>46033.66666666666</v>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -3025,7 +3251,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571874</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" s="2" t="n">
+        <v>46032.625</v>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -3048,7 +3276,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571875</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" s="2" t="n">
+        <v>46039.75</v>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -3071,7 +3301,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571876</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" s="2" t="n">
+        <v>46040.66666666666</v>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -3094,7 +3326,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571877</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" s="2" t="n">
+        <v>46040.66666666666</v>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -3117,7 +3351,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571878</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" s="2" t="n">
+        <v>46038.79166666666</v>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -3140,7 +3376,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571879</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" s="2" t="n">
+        <v>46039.70833333334</v>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -3163,7 +3401,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571880</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" s="2" t="n">
+        <v>46039.625</v>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -3186,7 +3426,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571881</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" s="2" t="n">
+        <v>46039.71319444444</v>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -3209,7 +3451,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571882</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" s="2" t="n">
+        <v>46046.625</v>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -3232,7 +3476,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571883</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" s="2" t="n">
+        <v>46046.6875</v>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -3255,7 +3501,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571884</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" s="2" t="n">
+        <v>46046.625</v>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -3278,7 +3526,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571885</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" s="2" t="n">
+        <v>46064.77083333334</v>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -3301,7 +3551,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571886</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" s="2" t="n">
+        <v>46046.625</v>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -3324,7 +3576,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571887</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" s="2" t="n">
+        <v>46046.66666666666</v>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -3347,7 +3601,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571888</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" s="2" t="n">
+        <v>46046.66666666666</v>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -3370,7 +3626,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571889</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" s="2" t="n">
+        <v>46050.77083333334</v>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -3393,7 +3651,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571890</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" s="2" t="n">
+        <v>46049.79166666666</v>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -3416,7 +3676,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571891</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" s="2" t="n">
+        <v>46050.77083333334</v>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -3439,7 +3701,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571892</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" s="2" t="n">
+        <v>46049.77083333334</v>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -3462,7 +3726,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571893</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" s="2" t="n">
+        <v>46050.77083333334</v>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -3485,7 +3751,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571894</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" s="2" t="n">
+        <v>46050.79166666666</v>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -3508,7 +3776,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571895</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" s="2" t="n">
+        <v>46050.77083333334</v>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -3531,7 +3801,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571896</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
+      <c r="C135" s="2" t="n">
+        <v>46052.77083333334</v>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -3554,7 +3826,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571897</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
+      <c r="C136" s="2" t="n">
+        <v>46053.75</v>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -3577,7 +3851,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571898</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" s="2" t="n">
+        <v>46054.54166666666</v>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -3600,7 +3876,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571899</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" s="2" t="n">
+        <v>46053.625</v>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -3623,7 +3901,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571900</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" s="2" t="n">
+        <v>46052.77083333334</v>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -3646,7 +3926,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571901</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" s="2" t="n">
+        <v>46053.71319444444</v>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -3669,7 +3951,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571902</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" s="2" t="n">
+        <v>46053.625</v>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -3692,7 +3976,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571903</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" s="2" t="n">
+        <v>46067.60416666666</v>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -3715,7 +4001,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571904</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" s="2" t="n">
+        <v>46068.66666666666</v>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -3738,7 +4026,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571905</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
+      <c r="C144" s="2" t="n">
+        <v>46067.70833333334</v>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -3761,7 +4051,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571906</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" s="2" t="n">
+        <v>46068.6875</v>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -3784,7 +4076,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571907</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" s="2" t="n">
+        <v>46067.625</v>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -3807,7 +4101,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571908</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" s="2" t="n">
+        <v>46067.66666666666</v>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -3830,7 +4126,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571909</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr"/>
+      <c r="C148" s="2" t="n">
+        <v>46067.58333333334</v>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -3853,7 +4151,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571910</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" s="2" t="n">
+        <v>46075.66666666666</v>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -3876,7 +4176,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571911</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" s="2" t="n">
+        <v>46073.79166666666</v>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -3899,7 +4201,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571912</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" s="2" t="n">
+        <v>46074.625</v>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -3922,7 +4226,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571913</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr"/>
+      <c r="C152" s="2" t="n">
+        <v>46074.66666666666</v>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -3945,7 +4251,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571914</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" s="2" t="n">
+        <v>46075.66666666666</v>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -3968,7 +4276,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571915</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" s="2" t="n">
+        <v>46073.79166666666</v>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -3991,7 +4301,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571916</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr"/>
+      <c r="C155" s="2" t="n">
+        <v>46074.71319444444</v>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -4014,7 +4326,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571917</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" s="2" t="n">
+        <v>46080.77083333334</v>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -4037,7 +4351,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571918</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" s="2" t="n">
+        <v>46082.66666666666</v>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -4060,7 +4376,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571919</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" s="2" t="n">
+        <v>46081.70833333334</v>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -4083,7 +4401,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571920</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" s="2" t="n">
+        <v>46081.71319444444</v>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -4106,7 +4426,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571921</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" s="2" t="n">
+        <v>46081.6875</v>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -4129,7 +4451,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571922</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" s="2" t="n">
+        <v>46081.625</v>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -4152,7 +4476,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571923</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" s="2" t="n">
+        <v>46081.66666666666</v>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -4175,7 +4501,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571924</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" s="2" t="n">
+        <v>46084.77083333334</v>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -4198,7 +4526,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571925</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
+      <c r="C164" s="2" t="n">
+        <v>46085.79166666666</v>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -4221,7 +4551,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571926</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
+      <c r="C165" s="2" t="n">
+        <v>46086.77083333334</v>
+      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -4244,7 +4576,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571927</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
+      <c r="C166" s="2" t="n">
+        <v>46085.79166666666</v>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -4267,7 +4601,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571928</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" s="2" t="n">
+        <v>46085.79166666666</v>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -4290,7 +4626,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571929</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
+      <c r="C168" s="2" t="n">
+        <v>46085.79166666666</v>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -4313,7 +4651,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571930</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" s="2" t="n">
+        <v>46085.79166666666</v>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>Nykvarns IBF</t>
@@ -4336,7 +4676,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571931</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" s="2" t="n">
+        <v>46087.79166666666</v>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>Pixbo IBK</t>
@@ -4359,7 +4701,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571932</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" s="2" t="n">
+        <v>46088.71319444444</v>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>IBF Falun</t>
@@ -4382,7 +4726,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571933</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" s="2" t="n">
+        <v>46088.66666666666</v>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>Mullsjö AIS</t>
@@ -4405,7 +4751,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571934</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" s="2" t="n">
+        <v>46089.6875</v>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>Hovslätts IK</t>
@@ -4428,7 +4776,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571935</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" s="2" t="n">
+        <v>46088.625</v>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -4451,7 +4801,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571936</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" s="2" t="n">
+        <v>46088.625</v>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>Warberg IC</t>
@@ -4474,7 +4826,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571937</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" s="2" t="n">
+        <v>46089.625</v>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
@@ -4497,7 +4851,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571938</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" s="2" t="n">
+        <v>46095.66666666666</v>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>Storvreta IBK</t>
@@ -4520,7 +4876,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571939</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" s="2" t="n">
+        <v>46095.66666666666</v>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>Visby IBK</t>
@@ -4543,7 +4901,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571940</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" s="2" t="n">
+        <v>46095.66666666666</v>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>FBC Kalmarsund</t>
@@ -4566,7 +4926,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571941</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" s="2" t="n">
+        <v>46095.66666666666</v>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>Strängnäs IBK</t>
@@ -4589,7 +4951,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571942</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" s="2" t="n">
+        <v>46095.66666666666</v>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>AIK IBF</t>
@@ -4612,7 +4976,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571943</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" s="2" t="n">
+        <v>46095.66666666666</v>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>Linköping IBK</t>
@@ -4635,7 +5001,9 @@
           <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571944</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" s="2" t="n">
+        <v>46095.66666666666</v>
+      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>Jönköpings IK</t>
@@ -4658,7 +5026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14121,17 +14489,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Emil Lindblom (23 år)</t>
+          <t>Oskar Bäckman (19 år)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -14149,47 +14517,45 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Måns Parsjö (31 år)</t>
+          <t>Jonathan Hjelm (27 år)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E327" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F327" t="n">
-        <v>3</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Olle Jonsson (25 år)</t>
+          <t>Wiktor Åkerstedt (30 år)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -14207,148 +14573,262 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Nicholay Halvorsen (25 år)</t>
+          <t>Oskar-Viking Tjärnberg (28 år)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E329" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F329" t="n">
-        <v>5</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1571846</t>
+          <t>1571845</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Rasmus Ekström (30 år)</t>
+          <t>Emil Lindblom (23 år)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>11</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1571846</t>
+          <t>1571845</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Andreas Egegård (28 år)</t>
+          <t>Måns Parsjö (31 år)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
-      </c>
-      <c r="G331" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.667</v>
+      </c>
       <c r="H331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1571846</t>
+          <t>1571845</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Santtu Strandberg (34 år)</t>
+          <t>Olle Jonsson (25 år)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F332" t="n">
-        <v>10</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
+          <t>1571845</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Nicholay Halvorsen (25 år)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Warberg IC</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>8</v>
+      </c>
+      <c r="E333" t="n">
+        <v>13</v>
+      </c>
+      <c r="F333" t="n">
+        <v>5</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
           <t>1571846</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Rasmus Ekström (30 år)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Visby IBK</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>27</v>
+      </c>
+      <c r="E334" t="n">
+        <v>38</v>
+      </c>
+      <c r="F334" t="n">
+        <v>11</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1571846</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Andreas Egegård (28 år)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Visby IBK</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0</v>
+      </c>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1571846</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Santtu Strandberg (34 år)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Växjö IBK</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>17</v>
+      </c>
+      <c r="E336" t="n">
+        <v>27</v>
+      </c>
+      <c r="F336" t="n">
+        <v>10</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1571846</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
         <is>
           <t>Noel Johansson (19 år)</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
+      <c r="C337" t="inlineStr">
         <is>
           <t>Växjö IBK</t>
         </is>
       </c>
-      <c r="D333" t="n">
-        <v>0</v>
-      </c>
-      <c r="E333" t="n">
-        <v>0</v>
-      </c>
-      <c r="F333" t="n">
-        <v>0</v>
-      </c>
-      <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr"/>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0</v>
+      </c>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -14531,15 +14531,17 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
-      </c>
-      <c r="G327" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.767</v>
+      </c>
       <c r="H327" t="inlineStr"/>
     </row>
     <row r="328">
@@ -14559,15 +14561,17 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
-      </c>
-      <c r="G328" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.769</v>
+      </c>
       <c r="H328" t="inlineStr"/>
     </row>
     <row r="329">

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -14564,13 +14564,13 @@
         <v>20</v>
       </c>
       <c r="E328" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F328" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G328" t="n">
-        <v>0.769</v>
+        <v>0.8</v>
       </c>
       <c r="H328" t="inlineStr"/>
     </row>
@@ -14594,12 +14594,14 @@
         <v>0</v>
       </c>
       <c r="E329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
-      </c>
-      <c r="G329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0</v>
+      </c>
       <c r="H329" t="inlineStr"/>
     </row>
     <row r="330">

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2318,462 +2318,462 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1571837</t>
+          <t>1571838</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571837</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571838</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45990.75</v>
+        <v>45990.70833333334</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1571838</t>
+          <t>1571839</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571838</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571839</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45990.70833333334</v>
+        <v>45990.66666666666</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1571839</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571839</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571840</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45990.66666666666</v>
+        <v>45996.82291666666</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>Jönköpings IK</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>Pixbo IBK</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1571840</t>
+          <t>1571841</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571840</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571841</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45996.82291666666</v>
+        <v>45997.625</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1571841</t>
+          <t>1571842</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571841</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571842</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45997.625</v>
+        <v>45995.79166666666</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571843</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571842</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571843</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45995.79166666666</v>
+        <v>45997.66666666666</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1571843</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571843</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571844</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45997.66666666666</v>
+        <v>45999.79166666666</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1571844</t>
+          <t>1571845</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571844</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571845</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45999.79166666666</v>
+        <v>45998.66666666666</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571846</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571845</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571846</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45998.66666666666</v>
+        <v>45997.70833333334</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1571846</t>
+          <t>1571847</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571846</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571847</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45997.70833333334</v>
+        <v>46011.625</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1571847</t>
+          <t>1571848</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571847</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571848</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>46011.625</v>
+        <v>46011.66666666666</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1571848</t>
+          <t>1571849</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571848</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571849</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>46011.66666666666</v>
+        <v>46011.71319444444</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1571849</t>
+          <t>1571850</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571849</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571850</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>46011.71319444444</v>
+        <v>46011.66666666666</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1571850</t>
+          <t>1571851</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571850</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571851</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>46011.66666666666</v>
+        <v>46011.5625</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1571851</t>
+          <t>1571852</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571851</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571852</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>46011.5625</v>
+        <v>46011.66666666666</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1571852</t>
+          <t>1571853</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571852</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571853</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>46011.66666666666</v>
+        <v>46010.79166666666</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1571853</t>
+          <t>1571854</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571853</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571854</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>46010.79166666666</v>
+        <v>46018.70833333334</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1571854</t>
+          <t>1571855</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571854</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571855</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>46018.70833333334</v>
+        <v>46017.66666666666</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1571855</t>
+          <t>1571856</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571855</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571856</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -2781,524 +2781,524 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1571856</t>
+          <t>1571857</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571856</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571857</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>46017.66666666666</v>
+        <v>46018.625</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1571857</t>
+          <t>1571858</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571857</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571858</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>46018.625</v>
+        <v>46017.77083333334</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1571858</t>
+          <t>1571859</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571858</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571859</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>46017.77083333334</v>
+        <v>46018.70833333334</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1571859</t>
+          <t>1571860</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571859</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571860</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>46018.70833333334</v>
+        <v>46018.66666666666</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1571860</t>
+          <t>1571861</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571860</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571861</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>46018.66666666666</v>
+        <v>46025.625</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1571861</t>
+          <t>1571862</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571861</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571862</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>46025.625</v>
+        <v>46025.66666666666</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1571862</t>
+          <t>1571863</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571862</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571863</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>46025.66666666666</v>
+        <v>46025.83333333334</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Warberg IC</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1571863</t>
+          <t>1571864</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571863</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571864</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>46025.83333333334</v>
+        <v>46027.79166666666</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1571864</t>
+          <t>1571865</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571864</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571865</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>46027.79166666666</v>
+        <v>46028.67152777778</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1571865</t>
+          <t>1571866</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571865</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571866</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>46028.67152777778</v>
+        <v>46025.52083333334</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1571866</t>
+          <t>1571867</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571866</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571867</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>46025.52083333334</v>
+        <v>46027.75</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1571867</t>
+          <t>1571868</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571867</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571868</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>46027.75</v>
+        <v>46032.625</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1571868</t>
+          <t>1571869</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571868</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571869</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>46032.625</v>
+        <v>46032.66666666666</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1571869</t>
+          <t>1571870</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571869</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571870</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>46032.66666666666</v>
+        <v>46032.75</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1571870</t>
+          <t>1571871</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571870</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571871</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>46032.75</v>
+        <v>46032.6875</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1571871</t>
+          <t>1571872</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571871</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571872</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>46032.6875</v>
+        <v>46032.70833333334</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1571872</t>
+          <t>1571873</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571872</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571873</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>46032.70833333334</v>
+        <v>46033.66666666666</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1571873</t>
+          <t>1571874</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571873</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571874</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>46033.66666666666</v>
+        <v>46032.625</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1571874</t>
+          <t>1571875</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571874</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571875</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>46032.625</v>
+        <v>46039.75</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1571875</t>
+          <t>1571876</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571875</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571876</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>46039.75</v>
+        <v>46040.66666666666</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1571876</t>
+          <t>1571877</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571876</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571877</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -3306,274 +3306,274 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1571877</t>
+          <t>1571878</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571877</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571878</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>46040.66666666666</v>
+        <v>46038.79166666666</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1571878</t>
+          <t>1571879</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571878</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571879</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>46038.79166666666</v>
+        <v>46039.70833333334</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1571879</t>
+          <t>1571880</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571879</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571880</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>46039.70833333334</v>
+        <v>46039.625</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1571880</t>
+          <t>1571881</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571880</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571881</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
-        <v>46039.625</v>
+        <v>46039.71319444444</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1571881</t>
+          <t>1571882</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571881</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571882</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>46039.71319444444</v>
+        <v>46046.625</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1571882</t>
+          <t>1571883</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571882</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571883</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>46046.625</v>
+        <v>46046.6875</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1571883</t>
+          <t>1571884</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571883</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571884</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>46046.6875</v>
+        <v>46046.625</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1571884</t>
+          <t>1571885</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571884</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571885</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>46046.625</v>
+        <v>46064.77083333334</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1571885</t>
+          <t>1571886</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571885</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571886</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>46064.77083333334</v>
+        <v>46046.625</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1571886</t>
+          <t>1571887</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571886</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571887</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>46046.625</v>
+        <v>46046.66666666666</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1571887</t>
+          <t>1571888</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571887</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571888</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -3581,999 +3581,999 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1571888</t>
+          <t>1571889</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571888</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571889</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>46046.66666666666</v>
+        <v>46050.77083333334</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1571889</t>
+          <t>1571890</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571889</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571890</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>46050.77083333334</v>
+        <v>46049.79166666666</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1571890</t>
+          <t>1571891</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571890</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571891</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
-        <v>46049.79166666666</v>
+        <v>46050.77083333334</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1571891</t>
+          <t>1571892</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571891</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571892</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>46050.77083333334</v>
+        <v>46049.77083333334</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1571892</t>
+          <t>1571893</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571892</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571893</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>46049.77083333334</v>
+        <v>46050.77083333334</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1571893</t>
+          <t>1571894</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571893</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571894</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>46050.77083333334</v>
+        <v>46050.79166666666</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1571894</t>
+          <t>1571895</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571894</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571895</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
-        <v>46050.79166666666</v>
+        <v>46050.77083333334</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1571895</t>
+          <t>1571896</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571895</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571896</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>46050.77083333334</v>
+        <v>46052.77083333334</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1571896</t>
+          <t>1571897</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571896</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571897</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>46052.77083333334</v>
+        <v>46053.75</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1571897</t>
+          <t>1571898</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571897</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571898</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>46053.75</v>
+        <v>46054.54166666666</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1571898</t>
+          <t>1571899</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571898</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571899</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>46054.54166666666</v>
+        <v>46053.625</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1571899</t>
+          <t>1571900</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571899</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571900</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>46053.625</v>
+        <v>46052.77083333334</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1571900</t>
+          <t>1571901</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571900</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571901</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
-        <v>46052.77083333334</v>
+        <v>46053.71319444444</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1571901</t>
+          <t>1571902</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571901</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571902</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>46053.71319444444</v>
+        <v>46053.625</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1571902</t>
+          <t>1571903</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571902</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571903</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>46053.625</v>
+        <v>46067.60416666666</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>Växjö IBK</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t>Strängnäs IBK</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1571903</t>
+          <t>1571904</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571903</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571904</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>46067.60416666666</v>
+        <v>46068.66666666666</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1571904</t>
+          <t>1571905</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571904</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571905</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
-        <v>46068.66666666666</v>
+        <v>46067.70833333334</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1571905</t>
+          <t>1571906</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571905</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571906</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>46067.70833333334</v>
+        <v>46068.6875</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1571906</t>
+          <t>1571907</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571906</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571907</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>46068.6875</v>
+        <v>46067.625</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Warberg IC</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1571907</t>
+          <t>1571908</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571907</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571908</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>46067.625</v>
+        <v>46067.66666666666</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1571908</t>
+          <t>1571909</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571908</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571909</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>46067.66666666666</v>
+        <v>46067.58333333334</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1571909</t>
+          <t>1571910</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571909</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571910</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
-        <v>46067.58333333334</v>
+        <v>46075.66666666666</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1571910</t>
+          <t>1571911</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571910</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571911</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
-        <v>46075.66666666666</v>
+        <v>46073.79166666666</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1571911</t>
+          <t>1571912</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571911</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571912</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>46073.79166666666</v>
+        <v>46074.625</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1571912</t>
+          <t>1571913</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571912</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571913</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>46074.625</v>
+        <v>46074.66666666666</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1571913</t>
+          <t>1571914</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571913</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571914</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>46074.66666666666</v>
+        <v>46075.66666666666</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1571914</t>
+          <t>1571915</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571914</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571915</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>46075.66666666666</v>
+        <v>46073.79166666666</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1571915</t>
+          <t>1571916</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571915</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571916</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>46073.79166666666</v>
+        <v>46074.71319444444</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1571916</t>
+          <t>1571917</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571916</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571917</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>46074.71319444444</v>
+        <v>46080.77083333334</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1571917</t>
+          <t>1571918</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571917</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571918</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>46080.77083333334</v>
+        <v>46082.66666666666</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1571918</t>
+          <t>1571919</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571918</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571919</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
-        <v>46082.66666666666</v>
+        <v>46081.70833333334</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1571919</t>
+          <t>1571920</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571919</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571920</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>46081.70833333334</v>
+        <v>46081.71319444444</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1571920</t>
+          <t>1571921</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571920</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571921</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>46081.71319444444</v>
+        <v>46081.6875</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1571921</t>
+          <t>1571922</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571921</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571922</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>46081.6875</v>
+        <v>46081.625</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1571922</t>
+          <t>1571923</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571922</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571923</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
-        <v>46081.625</v>
+        <v>46081.66666666666</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1571923</t>
+          <t>1571924</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571923</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571924</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>46081.66666666666</v>
+        <v>46084.77083333334</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1571924</t>
+          <t>1571925</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571924</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571925</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>46084.77083333334</v>
+        <v>46085.79166666666</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1571925</t>
+          <t>1571926</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571925</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571926</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>46085.79166666666</v>
+        <v>46086.77083333334</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1571926</t>
+          <t>1571927</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571926</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571927</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>46086.77083333334</v>
+        <v>46085.79166666666</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1571927</t>
+          <t>1571928</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571927</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571928</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -4581,24 +4581,24 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1571928</t>
+          <t>1571929</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571928</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571929</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -4606,24 +4606,24 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1571929</t>
+          <t>1571930</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571929</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571930</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -4631,149 +4631,149 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1571930</t>
+          <t>1571931</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571930</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571931</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>46085.79166666666</v>
+        <v>46087.79166666666</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1571931</t>
+          <t>1571932</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571931</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571932</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>46087.79166666666</v>
+        <v>46088.71319444444</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1571932</t>
+          <t>1571933</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571932</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571933</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>46088.71319444444</v>
+        <v>46088.66666666666</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1571933</t>
+          <t>1571934</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571933</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571934</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>46088.66666666666</v>
+        <v>46089.6875</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1571934</t>
+          <t>1571935</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571934</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571935</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>46089.6875</v>
+        <v>46088.625</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1571935</t>
+          <t>1571936</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571935</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571936</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -4781,74 +4781,74 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1571936</t>
+          <t>1571937</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571936</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571937</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>46088.625</v>
+        <v>46089.625</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1571937</t>
+          <t>1571938</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571937</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571938</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>46089.625</v>
+        <v>46095.66666666666</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>Storvreta IBK</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
           <t>Växjö IBK</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1571938</t>
+          <t>1571939</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571938</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571939</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -4856,24 +4856,24 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1571939</t>
+          <t>1571940</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571939</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571940</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -4881,24 +4881,24 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1571940</t>
+          <t>1571941</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571940</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571941</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -4906,24 +4906,24 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1571941</t>
+          <t>1571942</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571941</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571942</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -4931,24 +4931,24 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1571942</t>
+          <t>1571943</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571942</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571943</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -4956,24 +4956,24 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1571943</t>
+          <t>1571944</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571943</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571944</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -4981,35 +4981,10 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
-        <is>
-          <t>Pixbo IBK</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>1571944</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571944</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="n">
-        <v>46095.66666666666</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Jönköpings IK</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
         <is>
           <t>Warberg IC</t>
         </is>
@@ -5026,7 +5001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H337"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13675,163 +13650,163 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1571837</t>
+          <t>1571838</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Axel Adebrink (20 år)</t>
+          <t>Rasmus Ekström (30 år)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
-      </c>
-      <c r="G298" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.7929999999999999</v>
+      </c>
       <c r="H298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>1571837</t>
+          <t>1571838</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Pontus Zarins (27 år)</t>
+          <t>Andreas Egegård (28 år)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E299" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>3</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>1571837</t>
+          <t>1571838</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Santtu Strandberg (34 år)</t>
+          <t>Oskar Bäckman (19 år)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>3</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1571837</t>
+          <t>1571838</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Melvin Hildingsson (18 år)</t>
+          <t>Jonathan Hjelm (27 år)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
-      </c>
-      <c r="G301" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.759</v>
+      </c>
       <c r="H301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1571838</t>
+          <t>1571839</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Rasmus Ekström (30 år)</t>
+          <t>Jon Hedlund (34 år)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D302" t="n">
+        <v>21</v>
+      </c>
+      <c r="E302" t="n">
         <v>23</v>
       </c>
-      <c r="E302" t="n">
-        <v>29</v>
-      </c>
       <c r="F302" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G302" t="n">
-        <v>0.7929999999999999</v>
+        <v>0.9129999999999999</v>
       </c>
       <c r="H302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1571838</t>
+          <t>1571839</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Andreas Egegård (28 år)</t>
+          <t>Liam Juhlin (19 år)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -13849,17 +13824,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1571838</t>
+          <t>1571839</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Oskar Bäckman (19 år)</t>
+          <t>Jesper Ahrén (23 år)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -13877,77 +13852,77 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1571838</t>
+          <t>1571839</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Jonathan Hjelm (27 år)</t>
+          <t>Lucas Orrmo (37 år)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E305" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F305" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G305" t="n">
-        <v>0.759</v>
+        <v>0.87</v>
       </c>
       <c r="H305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1571839</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Jon Hedlund (34 år)</t>
+          <t>Emil Ödman (23 år)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E306" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F306" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G306" t="n">
-        <v>0.9129999999999999</v>
+        <v>0.647</v>
       </c>
       <c r="H306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1571839</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Liam Juhlin (19 år)</t>
+          <t>Alessio Mura (21 år)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -13965,105 +13940,105 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1571839</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Jesper Ahrén (23 år)</t>
+          <t>Jon Hedlund (34 år)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
-      </c>
-      <c r="G308" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.8</v>
+      </c>
       <c r="H308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1571839</t>
+          <t>1571840</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Lucas Orrmo (37 år)</t>
+          <t>Liam Juhlin (19 år)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E309" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F309" t="n">
-        <v>3</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1571840</t>
+          <t>1571841</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Emil Ödman (23 år)</t>
+          <t>Tomas Jurco (21 år)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E310" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F310" t="n">
         <v>6</v>
       </c>
       <c r="G310" t="n">
-        <v>0.647</v>
+        <v>0.727</v>
       </c>
       <c r="H310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1571840</t>
+          <t>1571841</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Alessio Mura (21 år)</t>
+          <t>Gustav Sundqvist (28 år)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -14081,191 +14056,191 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1571840</t>
+          <t>1571841</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Jon Hedlund (34 år)</t>
+          <t>Victor Frejd (25 år)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>4</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1571840</t>
+          <t>1571841</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Liam Juhlin (19 år)</t>
+          <t>Carl Bending-Sörling (31 år)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
-      </c>
-      <c r="G313" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.75</v>
+      </c>
       <c r="H313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1571841</t>
+          <t>1571842</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Tomas Jurco (21 år)</t>
+          <t>Axel Adebrink (20 år)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>6</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.727</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1571841</t>
+          <t>1571842</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Gustav Sundqvist (28 år)</t>
+          <t>Pontus Zarins (27 år)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
-      </c>
-      <c r="G315" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.75</v>
+      </c>
       <c r="H315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1571841</t>
+          <t>1571842</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Victor Frejd (25 år)</t>
+          <t>Gustav Jansson (34 år)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E316" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
-      </c>
-      <c r="G316" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.778</v>
+      </c>
       <c r="H316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1571841</t>
+          <t>1571842</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Carl Bending-Sörling (31 år)</t>
+          <t>Samuel Jönsson Dolke (20 år)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E317" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F317" t="n">
-        <v>5</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571843</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Axel Adebrink (20 år)</t>
+          <t>Jesper Ahrén (23 år)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -14283,105 +14258,107 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571843</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Pontus Zarins (27 år)</t>
+          <t>Lucas Orrmo (37 år)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E319" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F319" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G319" t="n">
-        <v>0.75</v>
+        <v>0.8079999999999999</v>
       </c>
       <c r="H319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571843</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Gustav Jansson (34 år)</t>
+          <t>David Andersson (23 år)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E320" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F320" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G320" t="n">
-        <v>0.778</v>
+        <v>0.667</v>
       </c>
       <c r="H320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1571842</t>
+          <t>1571843</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Samuel Jönsson Dolke (20 år)</t>
+          <t>Gustav Ringhagen (22 år)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E321" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
-      </c>
-      <c r="G321" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.826</v>
+      </c>
       <c r="H321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1571843</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Jesper Ahrén (23 år)</t>
+          <t>Oskar Bäckman (19 år)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -14399,107 +14376,107 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1571843</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Lucas Orrmo (37 år)</t>
+          <t>Jonathan Hjelm (27 år)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E323" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F323" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G323" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.767</v>
       </c>
       <c r="H323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1571843</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>David Andersson (23 år)</t>
+          <t>Wiktor Åkerstedt (30 år)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E324" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F324" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G324" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="H324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1571843</t>
+          <t>1571844</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Gustav Ringhagen (22 år)</t>
+          <t>Oskar-Viking Tjärnberg (28 år)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E325" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G325" t="n">
-        <v>0.826</v>
+        <v>0</v>
       </c>
       <c r="H325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1571844</t>
+          <t>1571845</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Oskar Bäckman (19 år)</t>
+          <t>Emil Lindblom (23 år)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -14517,324 +14494,206 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1571844</t>
+          <t>1571845</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Jonathan Hjelm (27 år)</t>
+          <t>Måns Parsjö (31 år)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E327" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F327" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G327" t="n">
-        <v>0.767</v>
+        <v>0.667</v>
       </c>
       <c r="H327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1571844</t>
+          <t>1571845</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Wiktor Åkerstedt (30 år)</t>
+          <t>Olle Jonsson (25 år)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>5</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1571844</t>
+          <t>1571845</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Oskar-Viking Tjärnberg (28 år)</t>
+          <t>Nicholay Halvorsen (25 år)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E329" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F329" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G329" t="n">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="H329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571846</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Emil Lindblom (23 år)</t>
+          <t>Rasmus Ekström (30 år)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
-      </c>
-      <c r="G330" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.711</v>
+      </c>
       <c r="H330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571846</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Måns Parsjö (31 år)</t>
+          <t>Andreas Egegård (28 år)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E331" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F331" t="n">
-        <v>3</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571846</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Olle Jonsson (25 år)</t>
+          <t>Santtu Strandberg (34 år)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
-      </c>
-      <c r="G332" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.63</v>
+      </c>
       <c r="H332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1571845</t>
+          <t>1571846</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Nicholay Halvorsen (25 år)</t>
+          <t>Noel Johansson (19 år)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E333" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F333" t="n">
-        <v>5</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>1571846</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Rasmus Ekström (30 år)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Visby IBK</t>
-        </is>
-      </c>
-      <c r="D334" t="n">
-        <v>27</v>
-      </c>
-      <c r="E334" t="n">
-        <v>38</v>
-      </c>
-      <c r="F334" t="n">
-        <v>11</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="H334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>1571846</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Andreas Egegård (28 år)</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Visby IBK</t>
-        </is>
-      </c>
-      <c r="D335" t="n">
-        <v>0</v>
-      </c>
-      <c r="E335" t="n">
-        <v>0</v>
-      </c>
-      <c r="F335" t="n">
-        <v>0</v>
-      </c>
-      <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>1571846</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Santtu Strandberg (34 år)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Växjö IBK</t>
-        </is>
-      </c>
-      <c r="D336" t="n">
-        <v>17</v>
-      </c>
-      <c r="E336" t="n">
-        <v>27</v>
-      </c>
-      <c r="F336" t="n">
-        <v>10</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="H336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>1571846</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Noel Johansson (19 år)</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Växjö IBK</t>
-        </is>
-      </c>
-      <c r="D337" t="n">
-        <v>0</v>
-      </c>
-      <c r="E337" t="n">
-        <v>0</v>
-      </c>
-      <c r="F337" t="n">
-        <v>0</v>
-      </c>
-      <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/goalie_stats.xlsx
+++ b/goalie_stats.xlsx
@@ -1893,387 +1893,387 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1571820</t>
+          <t>1571821</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571820</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571821</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45975.79166666666</v>
+        <v>45976.70833333334</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1571821</t>
+          <t>1571822</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571821</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571822</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45976.70833333334</v>
+        <v>45976.66666666666</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1571822</t>
+          <t>1571823</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571822</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571823</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45976.66666666666</v>
+        <v>45976.70833333334</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1571823</t>
+          <t>1571824</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571823</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571824</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45976.70833333334</v>
+        <v>45975.79166666666</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1571824</t>
+          <t>1571825</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571824</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571825</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45975.79166666666</v>
+        <v>45976.66666666666</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1571825</t>
+          <t>1571826</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571825</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571826</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45976.66666666666</v>
+        <v>45982.77083333334</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1571826</t>
+          <t>1571827</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571826</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571827</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45982.77083333334</v>
+        <v>45983.75</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1571827</t>
+          <t>1571828</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571827</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571828</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45983.75</v>
+        <v>45983.625</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1571828</t>
+          <t>1571829</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571828</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571829</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45983.625</v>
+        <v>45982.77083333334</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1571829</t>
+          <t>1571830</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571829</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571830</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45982.77083333334</v>
+        <v>45983.625</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1571830</t>
+          <t>1571831</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571830</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571831</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45983.625</v>
+        <v>45983.66666666666</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1571831</t>
+          <t>1571832</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571831</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571832</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45983.66666666666</v>
+        <v>45983.625</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1571832</t>
+          <t>1571833</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571832</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571833</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45983.625</v>
+        <v>45989.77083333334</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1571833</t>
+          <t>1571834</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571833</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571834</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45989.77083333334</v>
+        <v>45991.71319444444</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1571834</t>
+          <t>1571835</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571834</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571835</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45991.71319444444</v>
+        <v>45991.66666666666</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1571835</t>
+          <t>1571836</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571835</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571836</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2281,37 +2281,37 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1571836</t>
+          <t>1571837</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571836</t>
+          <t>http://statistik.innebandy.se/ft.aspx?scr=result&amp;fmid=1571837</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45991.66666666666</v>
+        <v>45990.75</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>46046.6875</v>
+        <v>46065.8125</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:H361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11678,47 +11678,47 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1571820</t>
+          <t>1571821</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Santtu Strandberg (34 år)</t>
+          <t>Rasmus Ekström (30 år)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E230" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F230" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G230" t="n">
-        <v>0.611</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1571820</t>
+          <t>1571821</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Melvin Hildingsson (18 år)</t>
+          <t>Andreas Egegård (28 år)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -11736,133 +11736,133 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1571820</t>
+          <t>1571821</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Olle Jonsson (25 år)</t>
+          <t>Wiktor Åkerstedt (30 år)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>5</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1571820</t>
+          <t>1571821</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Nicholay Halvorsen (25 år)</t>
+          <t>Oskar-Viking Tjärnberg (28 år)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
-      </c>
-      <c r="G233" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.647</v>
+      </c>
       <c r="H233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1571821</t>
+          <t>1571822</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Rasmus Ekström (30 år)</t>
+          <t>Emil Lindblom (23 år)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>4</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.8100000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1571821</t>
+          <t>1571822</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Andreas Egegård (28 år)</t>
+          <t>Måns Parsjö (31 år)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
-      </c>
-      <c r="G235" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.75</v>
+      </c>
       <c r="H235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1571821</t>
+          <t>1571822</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Wiktor Åkerstedt (30 år)</t>
+          <t>Gustav Jansson (34 år)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -11880,47 +11880,47 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1571821</t>
+          <t>1571822</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Oskar-Viking Tjärnberg (28 år)</t>
+          <t>Samuel Jönsson Dolke (20 år)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E237" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F237" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G237" t="n">
-        <v>0.647</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="H237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1571822</t>
+          <t>1571823</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Emil Lindblom (23 år)</t>
+          <t>David Andersson (23 år)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -11938,105 +11938,105 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1571822</t>
+          <t>1571823</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Måns Parsjö (31 år)</t>
+          <t>Gustav Ringhagen (22 år)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E239" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F239" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G239" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="H239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1571822</t>
+          <t>1571823</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Gustav Jansson (34 år)</t>
+          <t>Tomas Jurco (21 år)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
-      </c>
-      <c r="G240" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.769</v>
+      </c>
       <c r="H240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1571822</t>
+          <t>1571823</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Samuel Jönsson Dolke (20 år)</t>
+          <t>Gustav Sundqvist (28 år)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>7</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.5329999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1571823</t>
+          <t>1571824</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>David Andersson (23 år)</t>
+          <t>Jesper Ahrén (23 år)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -12054,163 +12054,163 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1571823</t>
+          <t>1571824</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Gustav Ringhagen (22 år)</t>
+          <t>Lucas Orrmo (37 år)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E243" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F243" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G243" t="n">
-        <v>0.65</v>
+        <v>0.789</v>
       </c>
       <c r="H243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1571823</t>
+          <t>1571824</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tomas Jurco (21 år)</t>
+          <t>Martin Wallberg (20 år)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>6</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1571823</t>
+          <t>1571824</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Gustav Sundqvist (28 år)</t>
+          <t>Jonathan Hjelm (27 år)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
-      </c>
-      <c r="G245" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.643</v>
+      </c>
       <c r="H245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1571824</t>
+          <t>1571825</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Jesper Ahrén (23 år)</t>
+          <t>Jon Hedlund (34 år)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
-      </c>
-      <c r="G246" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.833</v>
+      </c>
       <c r="H246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1571824</t>
+          <t>1571825</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Lucas Orrmo (37 år)</t>
+          <t>Liam Juhlin (19 år)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>4</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1571824</t>
+          <t>1571825</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Martin Wallberg (20 år)</t>
+          <t>Victor Frejd (25 år)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -12228,77 +12228,77 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1571824</t>
+          <t>1571825</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Jonathan Hjelm (27 år)</t>
+          <t>Carl Bending-Sörling (31 år)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="D249" t="n">
         <v>18</v>
       </c>
       <c r="E249" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0.643</v>
+        <v>1</v>
       </c>
       <c r="H249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1571825</t>
+          <t>1571826</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Jon Hedlund (34 år)</t>
+          <t>Emil Ödman (23 år)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E250" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G250" t="n">
-        <v>0.833</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="H250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1571825</t>
+          <t>1571826</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Liam Juhlin (19 år)</t>
+          <t>Pontus Bäckman (22 år)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -12316,105 +12316,105 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1571825</t>
+          <t>1571826</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Victor Frejd (25 år)</t>
+          <t>Gustav Jansson (34 år)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
-      </c>
-      <c r="G252" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.667</v>
+      </c>
       <c r="H252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1571825</t>
+          <t>1571826</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Carl Bending-Sörling (31 år)</t>
+          <t>Samuel Jönsson Dolke (20 år)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
-      <c r="G253" t="n">
-        <v>1</v>
-      </c>
+      <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1571826</t>
+          <t>1571827</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Emil Ödman (23 år)</t>
+          <t>Santtu Strandberg (34 år)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E254" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F254" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G254" t="n">
-        <v>0.8640000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="H254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1571826</t>
+          <t>1571827</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Pontus Bäckman (22 år)</t>
+          <t>Melvin Hildingsson (18 år)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -12432,47 +12432,47 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1571826</t>
+          <t>1571827</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Gustav Jansson (34 år)</t>
+          <t>Tomas Jurco (21 år)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E256" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F256" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G256" t="n">
-        <v>0.667</v>
+        <v>0.893</v>
       </c>
       <c r="H256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1571826</t>
+          <t>1571827</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Samuel Jönsson Dolke (20 år)</t>
+          <t>Gustav Sundqvist (28 år)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -12490,47 +12490,47 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1571827</t>
+          <t>1571828</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Santtu Strandberg (34 år)</t>
+          <t>Olle Jonsson (25 år)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E258" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F258" t="n">
         <v>4</v>
       </c>
       <c r="G258" t="n">
-        <v>0.667</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1571827</t>
+          <t>1571828</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Melvin Hildingsson (18 år)</t>
+          <t>Nicholay Halvorsen (25 år)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Växjö IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -12548,47 +12548,47 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1571827</t>
+          <t>1571828</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Tomas Jurco (21 år)</t>
+          <t>Rasmus Ekström (30 år)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E260" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F260" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G260" t="n">
-        <v>0.893</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1571827</t>
+          <t>1571828</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Gustav Sundqvist (28 år)</t>
+          <t>Andreas Egegård (28 år)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Visby IBK</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -12606,191 +12606,191 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1571828</t>
+          <t>1571829</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Olle Jonsson (25 år)</t>
+          <t>Emil Lindblom (23 år)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>4</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.8179999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1571828</t>
+          <t>1571829</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Nicholay Halvorsen (25 år)</t>
+          <t>Måns Parsjö (31 år)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
-      </c>
-      <c r="G263" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.75</v>
+      </c>
       <c r="H263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1571828</t>
+          <t>1571829</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Rasmus Ekström (30 år)</t>
+          <t>Victor Frejd (25 år)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>7</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.6820000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1571828</t>
+          <t>1571829</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Andreas Egegård (28 år)</t>
+          <t>Carl Bending-Sörling (31 år)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Visby IBK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
-      </c>
-      <c r="G265" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.778</v>
+      </c>
       <c r="H265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1571829</t>
+          <t>1571830</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Emil Lindblom (23 år)</t>
+          <t>Wiktor Åkerstedt (30 år)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
-      </c>
-      <c r="G266" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.821</v>
+      </c>
       <c r="H266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1571829</t>
+          <t>1571830</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Måns Parsjö (31 år)</t>
+          <t>Oskar-Viking Tjärnberg (28 år)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>4</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1571829</t>
+          <t>1571830</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Victor Frejd (25 år)</t>
+          <t>David Andersson (23 år)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -12808,105 +12808,105 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1571829</t>
+          <t>1571830</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Carl Bending-Sörling (31 år)</t>
+          <t>Gustav Ringhagen (22 år)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E269" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F269" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G269" t="n">
-        <v>0.778</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1571830</t>
+          <t>1571831</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Wiktor Åkerstedt (30 år)</t>
+          <t>Jesper Ahrén (23 år)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>5</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1571830</t>
+          <t>1571831</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Oskar-Viking Tjärnberg (28 år)</t>
+          <t>Lucas Orrmo (37 år)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Nykvarns IBF</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
-      </c>
-      <c r="G271" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.8079999999999999</v>
+      </c>
       <c r="H271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1571830</t>
+          <t>1571831</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>David Andersson (23 år)</t>
+          <t>Axel Adebrink (20 år)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -12924,47 +12924,47 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1571830</t>
+          <t>1571831</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Gustav Ringhagen (22 år)</t>
+          <t>Pontus Zarins (27 år)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="D273" t="n">
+        <v>14</v>
+      </c>
+      <c r="E273" t="n">
         <v>20</v>
       </c>
-      <c r="E273" t="n">
-        <v>29</v>
-      </c>
       <c r="F273" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G273" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1571831</t>
+          <t>1571832</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Jesper Ahrén (23 år)</t>
+          <t>Martin Wallberg (20 år)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -12982,193 +12982,193 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1571831</t>
+          <t>1571832</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Lucas Orrmo (37 år)</t>
+          <t>Jonathan Hjelm (27 år)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Nykvarns IBF</t>
+          <t>AIK IBF</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E275" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F275" t="n">
         <v>5</v>
       </c>
       <c r="G275" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1571831</t>
+          <t>1571832</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Axel Adebrink (20 år)</t>
+          <t>Jon Hedlund (34 år)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
-      </c>
-      <c r="G276" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1571831</t>
+          <t>1571832</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Pontus Zarins (27 år)</t>
+          <t>Lauritz Brunborg (17 år)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>FBC Kalmarsund</t>
+          <t>Pixbo IBK</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>6</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1571832</t>
+          <t>1571833</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Martin Wallberg (20 år)</t>
+          <t>Gustav Ringhagen (22 år)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
-      </c>
-      <c r="G278" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.75</v>
+      </c>
       <c r="H278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1571832</t>
+          <t>1571833</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Jonathan Hjelm (27 år)</t>
+          <t>Philip Axelsson (24 år)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>AIK IBF</t>
+          <t>Hovslätts IK</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>5</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1571832</t>
+          <t>1571833</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Jon Hedlund (34 år)</t>
+          <t>Emil Ödman (23 år)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="D280" t="n">
+        <v>18</v>
+      </c>
+      <c r="E280" t="n">
         <v>27</v>
       </c>
-      <c r="E280" t="n">
-        <v>30</v>
-      </c>
       <c r="F280" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G280" t="n">
-        <v>0.9</v>
+        <v>0.667</v>
       </c>
       <c r="H280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1571832</t>
+          <t>1571833</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Lauritz Brunborg (17 år)</t>
+          <t>Alessio Mura (21 år)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Pixbo IBK</t>
+          <t>Jönköpings IK</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -13186,47 +13186,47 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1571833</t>
+          <t>1571834</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Gustav Ringhagen (22 år)</t>
+          <t>Victor Frejd (25 år)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E282" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F282" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G282" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="H282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1571833</t>
+          <t>1571834</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Philip Axelsson (24 år)</t>
+          <t>Carl Bending-Sörling (31 år)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Hovslätts IK</t>
+          <t>IBF Falun</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -13244,47 +13244,47 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1571833</t>
+          <t>1571834</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Emil Ödman (23 år)</t>
+          <t>Wiktor Åkerstedt (30 år)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E284" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F284" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G284" t="n">
-        <v>0.667</v>
+        <v>0.861</v>
       </c>
       <c r="H284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1571833</t>
+          <t>1571834</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Alessio Mura (21 år)</t>
+          <t>Oskar-Viking Tjärnberg (28 år)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Jönköpings IK</t>
+          <t>Strängnäs IBK</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -13302,47 +13302,47 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1571834</t>
+          <t>1571835</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Victor Frejd (25 år)</t>
+          <t>Tomas Jurco (21 år)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E286" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F286" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G286" t="n">
-        <v>0.72</v>
+        <v>0.857</v>
       </c>
       <c r="H286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1571834</t>
+          <t>1571835</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Carl Bending-Sörling (31 år)</t>
+          <t>Gustav Sundqvist (28 år)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>IBF Falun</t>
+          <t>Linköping IBK</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -13360,105 +13360,105 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1571834</t>
+          <t>1571835</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Wiktor Åkerstedt (30 år)</t>
+          <t>Emil Lindblom (23 år)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>5</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1571834</t>
+          <t>1571835</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Oskar-Viking Tjärnberg (28 år)</t>
+          <t>Måns Parsjö (31 år)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Strängnäs IBK</t>
+          <t>Storvreta IBK</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
-      </c>
-      <c r="G289" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.85</v>
+      </c>
       <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1571835</t>
+          <t>1571836</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tomas Jurco (21 år)</t>
+          <t>Gustav Jansson (34 år)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E290" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G290" t="n">
-        <v>0.857</v>
+        <v>0.85</v>
       </c>
       <c r="H290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1571835</t>
+          <t>1571836</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Gustav Sundqvist (28 år)</t>
+          <t>Samuel Jönsson Dolke (20 år)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Linköping IBK</t>
+          <t>Mullsjö AIS</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -13476,163 +13476,163 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1571835</t>
+          <t>1571836</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Emil Lindblom (23 år)</t>
+          <t>Olle Jonsson (25 år)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
-      </c>
-      <c r="G292" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.643</v>
+      </c>
       <c r="H292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1571835</t>
+          <t>1571836</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Måns Parsjö (31 år)</t>
+          <t>Nicholay Halvorsen (25 år)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Storvreta IBK</t>
+          <t>Warberg IC</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E293" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>3</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1571836</t>
+          <t>1571837</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Gustav Jansson (34 år)</t>
+          <t>Axel Adebrink (20 år)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>3</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1571836</t>
+          <t>1571837</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Samuel Jönsson Dolke (20 år)</t>
+          <t>Pontus Zarins (27 år)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Mullsjö AIS</t>
+          <t>FBC Kalmarsund</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
-      </c>
-      <c r="G295" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.857</v>
+      </c>
       <c r="H295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1571836</t>
+          <t>1571837</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Olle Jonsson (25 år)</t>
+          <t>Santtu Strandberg (34 år)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E296" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F296" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G296" t="n">
-        <v>0.643</v>
+        <v>0.75</v>
       </c>
       <c r="H296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1571836</t>
+          <t>1571837</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Nicholay Halvorsen (25 år)</t>
+          <t>Melvin Hildingsson (18 år)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Warberg IC</t>
+          <t>Växjö IBK</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -14694,6 +14694,818 @@
       </c>
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1571847</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Santtu Strandberg (34 år)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Växjö IBK</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>14</v>
+      </c>
+      <c r="E334" t="n">
+        <v>21</v>
+      </c>
+      <c r="F334" t="n">
+        <v>7</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1571847</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Noel Johansson (19 år)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Växjö IBK</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0</v>
+      </c>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1571847</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Emil Lindblom (23 år)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Storvreta IBK</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0</v>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1571847</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Måns Parsjö (31 år)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Storvreta IBK</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>15</v>
+      </c>
+      <c r="E337" t="n">
+        <v>16</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1571848</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Gustav Jansson (34 år)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0</v>
+      </c>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1571848</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Samuel Jönsson Dolke (20 år)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Mullsjö AIS</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>12</v>
+      </c>
+      <c r="E339" t="n">
+        <v>16</v>
+      </c>
+      <c r="F339" t="n">
+        <v>4</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1571848</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Rasmus Ekström (30 år)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Visby IBK</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>14</v>
+      </c>
+      <c r="E340" t="n">
+        <v>23</v>
+      </c>
+      <c r="F340" t="n">
+        <v>9</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1571848</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Andreas Egegård (28 år)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Visby IBK</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0</v>
+      </c>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1571849</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Victor Frejd (25 år)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>IBF Falun</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0</v>
+      </c>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1571849</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Carl Bending-Sörling (31 år)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>IBF Falun</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>12</v>
+      </c>
+      <c r="E343" t="n">
+        <v>16</v>
+      </c>
+      <c r="F343" t="n">
+        <v>4</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1571849</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Axel Adebrink (20 år)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>FBC Kalmarsund</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1571849</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Pontus Zarins (27 år)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>FBC Kalmarsund</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>15</v>
+      </c>
+      <c r="E345" t="n">
+        <v>22</v>
+      </c>
+      <c r="F345" t="n">
+        <v>7</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1571850</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Jesper Ahrén (23 år)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Nykvarns IBF</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0</v>
+      </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1571850</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Lucas Orrmo (37 år)</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Nykvarns IBF</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>14</v>
+      </c>
+      <c r="E347" t="n">
+        <v>19</v>
+      </c>
+      <c r="F347" t="n">
+        <v>5</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1571850</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Wiktor Åkerstedt (30 år)</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Strängnäs IBK</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>22</v>
+      </c>
+      <c r="E348" t="n">
+        <v>26</v>
+      </c>
+      <c r="F348" t="n">
+        <v>4</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1571850</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Oskar-Viking Tjärnberg (28 år)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Strängnäs IBK</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0</v>
+      </c>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>1571851</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Gustav Ringhagen (22 år)</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Hovslätts IK</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>26</v>
+      </c>
+      <c r="E350" t="n">
+        <v>32</v>
+      </c>
+      <c r="F350" t="n">
+        <v>6</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>1571851</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Philip Axelsson (24 år)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Hovslätts IK</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0</v>
+      </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>1571851</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Martin Wallberg (20 år)</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>AIK IBF</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0</v>
+      </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1571851</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Jonathan Hjelm (27 år)</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>AIK IBF</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>28</v>
+      </c>
+      <c r="E353" t="n">
+        <v>33</v>
+      </c>
+      <c r="F353" t="n">
+        <v>5</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>1571852</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Jon Hedlund (34 år)</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Pixbo IBK</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>18</v>
+      </c>
+      <c r="E354" t="n">
+        <v>26</v>
+      </c>
+      <c r="F354" t="n">
+        <v>8</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.6920000000000001</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>1571852</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Liam Juhlin (19 år)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Pixbo IBK</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0</v>
+      </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1571852</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Tomas Jurco (21 år)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Linköping IBK</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>26</v>
+      </c>
+      <c r="E356" t="n">
+        <v>28</v>
+      </c>
+      <c r="F356" t="n">
+        <v>2</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="H356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1571852</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Gustav Sundqvist (28 år)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Linköping IBK</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0</v>
+      </c>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1571853</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Olle Jonsson (25 år)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Warberg IC</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>8</v>
+      </c>
+      <c r="E358" t="n">
+        <v>10</v>
+      </c>
+      <c r="F358" t="n">
+        <v>2</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>1571853</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Nicholay Halvorsen (25 år)</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Warberg IC</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0</v>
+      </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1571853</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Emil Ödman (23 år)</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Jönköpings IK</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>10</v>
+      </c>
+      <c r="E360" t="n">
+        <v>15</v>
+      </c>
+      <c r="F360" t="n">
+        <v>5</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>1571853</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Alessio Mura (21 år)</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Jönköpings IK</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0</v>
+      </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
